--- a/Template_Expenses.xlsx
+++ b/Template_Expenses.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
   <si>
     <t>Amount</t>
@@ -143,13 +146,16 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -169,6 +175,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -233,7 +240,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" invalid="1" refreshOnLoad="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E1006" sheet="Expenses"/>
+    <worksheetSource ref="A1:F1006" sheet="Expenses"/>
   </cacheSource>
   <cacheFields>
     <cacheField name="Date" numFmtId="0">
@@ -242,6 +249,11 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Month" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Year" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1">
         <m/>
       </sharedItems>
@@ -267,7 +279,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Table" cacheId="0" dataCaption="" compact="0" compactData="0">
-  <location ref="A1:C4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A1:C3" firstHeaderRow="0" firstDataRow="2" firstDataCol="1"/>
   <pivotFields>
     <pivotField name="Date" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
@@ -278,6 +290,12 @@
     <pivotField name="Month" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
       <items>
         <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Year" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
+      <items>
+        <item h="1" sd="0" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -301,25 +319,27 @@
     </pivotField>
   </pivotFields>
   <rowFields>
+    <field x="2"/>
     <field x="1"/>
   </rowFields>
   <colFields>
-    <field x="4"/>
+    <field x="5"/>
   </colFields>
   <dataFields>
-    <dataField name="SUM of Amount" fld="2" baseField="0"/>
+    <dataField name="SUM of Amount" fld="3" baseField="0"/>
   </dataFields>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E1005" displayName="AllData" name="AllData" id="1">
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F1005" displayName="AllData" name="AllData" id="1">
+  <tableColumns count="6">
     <tableColumn name="Date" id="1"/>
     <tableColumn name="Month" id="2"/>
-    <tableColumn name="Amount" id="3"/>
-    <tableColumn name="Description" id="4"/>
-    <tableColumn name="Type" id="5"/>
+    <tableColumn name="Year" id="3"/>
+    <tableColumn name="Amount" id="4"/>
+    <tableColumn name="Description" id="5"/>
+    <tableColumn name="Type" id="6"/>
   </tableColumns>
   <tableStyleInfo name="Expenses-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -532,7 +552,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="13.88"/>
+    <col customWidth="1" min="5" max="5" width="13.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,7 +562,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -551,62 +571,65 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="S1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3"/>
+      <c r="A2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
     </row>
     <row r="1001">
-      <c r="A1001" s="4"/>
-      <c r="B1001" s="5"/>
+      <c r="A1001" s="5"/>
+      <c r="B1001" s="6"/>
     </row>
     <row r="1002">
-      <c r="A1002" s="4"/>
-      <c r="B1002" s="5"/>
+      <c r="A1002" s="5"/>
+      <c r="B1002" s="6"/>
     </row>
     <row r="1003">
-      <c r="A1003" s="4"/>
-      <c r="B1003" s="5"/>
+      <c r="A1003" s="5"/>
+      <c r="B1003" s="6"/>
     </row>
     <row r="1004">
-      <c r="A1004" s="4"/>
-      <c r="B1004" s="5"/>
+      <c r="A1004" s="5"/>
+      <c r="B1004" s="6"/>
     </row>
     <row r="1005">
-      <c r="A1005" s="6"/>
-      <c r="B1005" s="7"/>
+      <c r="A1005" s="7"/>
+      <c r="B1005" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -629,7 +652,6 @@
     <row r="1"/>
     <row r="2"/>
     <row r="3"/>
-    <row r="4"/>
   </sheetData>
   <drawing r:id="rId2"/>
 </worksheet>
